--- a/llm_reconciliation_output.xlsx
+++ b/llm_reconciliation_output.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,60 +441,77 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>expense</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>statement</t>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-10', 'description': 'Cab fare to client meeting', 'amount': 450.0}</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>{'date': '2025-06-10', 'description': 'Cab fare to client meeting', 'amount': 450.0}</t>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>450</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cab fare to client meeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-11', 'description': 'Team lunch with client', 'amount': 780.0}</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>{'date': '2025-06-11', 'description': 'Team lunch with client', 'amount': 780.0}</t>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>780</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Team lunch with client</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-12', 'description': 'Purchased presentation folders', 'amount': 320.0}</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>{'date': '2025-06-12', 'description': 'Purchased presentation folders', 'amount': 320.0}</t>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>320</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Purchased presentation folders</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-13', 'description': 'Prepaid internet data recharge', 'amount': 299.0}</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>{'date': '2025-06-13', 'description': 'Prepaid internet data recharge', 'amount': 299.0}</t>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>299</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Prepaid internet data recharge</t>
         </is>
       </c>
     </row>
@@ -509,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,48 +537,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>expense</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-10', 'description': 'Cab fare to client meeting', 'amount': 450.0}</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>✅ Matched</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{'date': '2025-06-11', 'description': 'Team lunch with client', 'amount': 780.0}</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>✅ Matched</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>{'date': '2025-06-12', 'description': 'Purchased presentation folders', 'amount': 320.0}</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>✅ Matched</t>
+          <t>UNKNOWN DATE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>299</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Generated on 19-Jun-2025 11:10:00 (parsing failed)</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,96 +588,107 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>charge</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-14', 'description': 'Online Shopping - Amazon', 'amount': 1849.0}</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>❌ Missing in expenses</t>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ATM Cash Withdrawal</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-15', 'description': 'Refund from hotel booking', 'amount': -1500.0}</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>🟢 Reimbursement</t>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1849</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Online Shopping - Amazon</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-16', 'description': 'Mobile bill payment', 'amount': 699.0}</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>❌ Missing in expenses</t>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>699</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mobile bill payment</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-17', 'description': 'Bank processing fee', 'amount': 25.0}</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>❌ Missing in expenses</t>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bank processing fee</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-18', 'description': 'UPI to R Sharma', 'amount': 1200.0}</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>❌ Missing in expenses</t>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UPI to R Sharma</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-19', 'description': 'Reimbursement - Presentation folders', 'amount': -100.0}</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>🟢 Reimbursement</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{'date': '2025-06-20', 'description': 'Coffee Shop POS', 'amount': 250.0}</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>❌ Missing in expenses</t>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>250</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Coffee Shop POS</t>
         </is>
       </c>
     </row>
@@ -691,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,21 +714,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>reimbursement</t>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-15', 'description': 'Refund from hotel booking', 'amount': -1500.0}</t>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Refund from hotel booking</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'date': '2025-06-19', 'description': 'Reimbursement - Presentation folders', 'amount': -100.0}</t>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Reimbursement - Presentation folders</t>
         </is>
       </c>
     </row>
@@ -726,6 +764,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>450</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cab fare to client meeting</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -741,55 +830,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-06-14</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Online Shopping - Amazon</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1849</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/llm_reconciliation_output.xlsx
+++ b/llm_reconciliation_output.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="matched" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_expenses" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_charges" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="reimbursements" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_expenses" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_statements" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expense_bills" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="saving_account_entries" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="matched" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_expenses" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_debits" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_expenses" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_statements" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,78 +442,153 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>file</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Expense_Bill_1.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2025-06-10</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cab fare to client meeting</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>450</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cab fare to client meeting</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Expense_Bill_2.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2025-06-11</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Team lunch with client</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>780</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Team lunch with client</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Expense_Bill_3.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2025-06-12</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Purchased presentation folders</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>320</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Purchased presentation folders</t>
-        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Expense_Bill_4.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Prepaid internet data recharge</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>299</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Prepaid internet data recharge</t>
-        </is>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Expense_Bill_5.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cab fare to client meeting</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -521,6 +597,473 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM Cash Withdrawal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cab fare to client meeting</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Team lunch with client</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Purchased presentation folders</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prepaid internet data recharge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Online Shopping - Amazon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Refund from hotel booking</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mobile bill payment</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bank processing fee</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Charges</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UPI to R Sharma</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Reimbursement - Presentation folders</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coffee Shop POS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cab fare to client meeting</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Team lunch with client</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Purchased presentation folders</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prepaid internet data recharge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -571,13 +1114,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,12 +1136,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
         </is>
       </c>
     </row>
@@ -608,13 +1161,23 @@
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM Cash Withdrawal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>5000</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ATM Cash Withdrawal</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -623,190 +1186,173 @@
           <t>2025-06-14</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Online Shopping - Amazon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>1849</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Online Shopping - Amazon</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>699</v>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Refund from hotel booking</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mobile bill payment</t>
-        </is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-1500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25</v>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mobile bill payment</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bank processing fee</t>
-        </is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1200</v>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bank processing fee</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UPI to R Sharma</t>
-        </is>
+          <t>Charges</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UPI to R Sharma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Reimbursement - Presentation folders</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coffee Shop POS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>250</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Coffee Shop POS</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-06-15</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-1500</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Refund from hotel booking</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-100</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Reimbursement - Presentation folders</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>450</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cab fare to client meeting</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -820,14 +1366,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cab fare to client meeting</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/llm_reconciliation_output.xlsx
+++ b/llm_reconciliation_output.xlsx
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Expense_Bill_1.pdf</t>
+          <t>email_Expense_Bill_1.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Expense_Bill_2.pdf</t>
+          <t>email_Expense_Bill_2.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Expense_Bill_3.pdf</t>
+          <t>email_Expense_Bill_3.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Expense_Bill_4.pdf</t>
+          <t>email_Expense_Bill_4.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Expense_Bill_5.pdf</t>
+          <t>email_Expense_Bill_5.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,6 +1106,36 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Generated on 19-Jun-2025 11:10:00 (parsing failed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UNKNOWN DATE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>780</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UNKNOWN DATE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>780</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
         </is>
       </c>
     </row>

--- a/llm_reconciliation_output.xlsx
+++ b/llm_reconciliation_output.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,12 +1100,10 @@
           <t>UNKNOWN DATE</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>299</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Generated on 19-Jun-2025 11:10:00 (parsing failed)</t>
+          <t>Unknown (parsing failed)</t>
         </is>
       </c>
     </row>
@@ -1116,11 +1114,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>780</v>
+        <v>299</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
+          <t>Generated on 19-Jun-2025 11:10:00 (parsing failed)</t>
         </is>
       </c>
     </row>
@@ -1134,6 +1132,21 @@
         <v>780</v>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UNKNOWN DATE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>780</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
         </is>

--- a/llm_reconciliation_output.xlsx
+++ b/llm_reconciliation_output.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,6 +1147,21 @@
         <v>780</v>
       </c>
       <c r="C5" t="inlineStr">
+        <is>
+          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UNKNOWN DATE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>780</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
         </is>

--- a/llm_reconciliation_output.xlsx
+++ b/llm_reconciliation_output.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,10 +1100,12 @@
           <t>UNKNOWN DATE</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>299</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unknown (parsing failed)</t>
+          <t>Generated on 19-Jun-2025 11:10:00 (parsing failed)</t>
         </is>
       </c>
     </row>
@@ -1114,11 +1116,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299</v>
+        <v>780</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Generated on 19-Jun-2025 11:10:00 (parsing failed)</t>
+          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
         </is>
       </c>
     </row>
@@ -1132,36 +1134,6 @@
         <v>780</v>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UNKNOWN DATE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>780</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>UNKNOWN DATE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>780</v>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
         </is>

--- a/llm_reconciliation_output.xlsx
+++ b/llm_reconciliation_output.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,36 +1106,6 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Generated on 19-Jun-2025 11:10:00 (parsing failed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>UNKNOWN DATE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>780</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UNKNOWN DATE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>780</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Amount in Words: 780 Rupees Only (parsing failed)</t>
         </is>
       </c>
     </row>
